--- a/FROM_FAI/Concordance_Analysis_Complete.xlsx
+++ b/FROM_FAI/Concordance_Analysis_Complete.xlsx
@@ -1629,7 +1629,7 @@
       <color indexed="65"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1652,6 +1652,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9E1F2"/>
         <bgColor rgb="FFD9E1F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="5"/>
+        <bgColor indexed="5"/>
       </patternFill>
     </fill>
   </fills>
@@ -1682,7 +1688,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" quotePrefix="0" pivotButton="0"/>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" quotePrefix="0" pivotButton="0"/>
     <xf fontId="1" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="0" pivotButton="0">
@@ -1701,6 +1707,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="0" fillId="4" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="0" pivotButton="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="5" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" quotePrefix="0" pivotButton="0"/>
+    <xf fontId="0" fillId="5" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="0" pivotButton="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="5" borderId="1" numFmtId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="0" pivotButton="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -22110,68 +22123,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307">
-      <c r="A307" s="3" t="s">
+    <row r="307" s="8" customFormat="1">
+      <c r="A307" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="B307" s="3" t="s">
+      <c r="B307" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="C307" s="3" t="s">
+      <c r="C307" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="D307" s="4">
+      <c r="D307" s="10">
         <v>4049</v>
       </c>
-      <c r="E307" s="5">
+      <c r="E307" s="10">
         <v>4001</v>
       </c>
-      <c r="F307" s="4">
+      <c r="F307" s="10">
         <v>675</v>
       </c>
-      <c r="G307" s="5">
+      <c r="G307" s="10">
         <v>627</v>
       </c>
-      <c r="H307" s="4">
+      <c r="H307" s="10">
         <v>25</v>
       </c>
-      <c r="I307" s="5">
+      <c r="I307" s="10">
         <v>21</v>
       </c>
-      <c r="J307" s="4">
+      <c r="J307" s="10">
         <v>25</v>
       </c>
-      <c r="K307" s="5">
+      <c r="K307" s="10">
         <v>24</v>
       </c>
-      <c r="L307" s="4">
+      <c r="L307" s="10">
         <v>18</v>
       </c>
-      <c r="M307" s="5">
+      <c r="M307" s="10">
         <v>3</v>
       </c>
-      <c r="N307" s="5">
-        <v>2</v>
-      </c>
-      <c r="O307" s="5">
-        <v>0</v>
-      </c>
-      <c r="P307" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q307" s="5">
-        <v>0</v>
-      </c>
-      <c r="R307" s="4">
-        <v>0</v>
-      </c>
-      <c r="S307" s="5">
-        <v>0</v>
-      </c>
-      <c r="T307" s="4">
-        <v>0</v>
-      </c>
-      <c r="U307" s="5">
+      <c r="N307" s="10">
+        <v>2</v>
+      </c>
+      <c r="O307" s="10">
+        <v>0</v>
+      </c>
+      <c r="P307" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q307" s="10">
+        <v>0</v>
+      </c>
+      <c r="R307" s="10">
+        <v>0</v>
+      </c>
+      <c r="S307" s="10">
+        <v>0</v>
+      </c>
+      <c r="T307" s="10">
+        <v>0</v>
+      </c>
+      <c r="U307" s="10">
         <v>2</v>
       </c>
     </row>
